--- a/m2_analysis.xlsx
+++ b/m2_analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\EE379K\edgeai-finalproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC57337A-F4BE-4365-8D3B-B932D16C8906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69467E31-5E23-41FF-A27D-D83339230AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1_m2" sheetId="1" r:id="rId1"/>
     <sheet name="table1_m1" sheetId="2" r:id="rId2"/>
-    <sheet name="Accuracy vs Pruning" sheetId="3" r:id="rId3"/>
-    <sheet name="FoM vs Pruning" sheetId="4" r:id="rId4"/>
+    <sheet name="FoM vs Pruning" sheetId="4" r:id="rId3"/>
+    <sheet name="Accuracy vs Pruning" sheetId="3" r:id="rId4"/>
+    <sheet name="Memory vs Pruning" sheetId="5" r:id="rId5"/>
+    <sheet name="Latency vs Pruning" sheetId="7" r:id="rId6"/>
+    <sheet name="Energy vs Pruning" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Parameters</t>
   </si>
@@ -150,11 +164,14 @@
   <si>
     <t>FOM</t>
   </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,8 +649,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -713,12 +731,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -726,14 +741,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Accuracies after 5 training</a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Figure of Merit vs Pruning Fraction after 5 retraining epochs</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> Epochs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -750,12 +764,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -768,9 +779,20 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10730847853709199"/>
+          <c:y val="8.9193571719921885E-2"/>
+          <c:w val="0.88535989345470356"/>
+          <c:h val="0.78053987660154367"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -779,72 +801,24 @@
             <c:v>Quantized Models</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="63500">
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="38100" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-5C9D-4BA5-8079-7FC2B760FC1F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1049502344100463E-2"/>
-                  <c:y val="-3.9058671797951063E-2"/>
+                  <c:x val="-1.9987287996162166E-2"/>
+                  <c:y val="-9.9104852720923384E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -854,7 +828,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000000-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -862,11 +836,10 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6386246327691444E-2"/>
-                  <c:y val="-6.5333640378595098E-2"/>
+                  <c:x val="-1.3405102466717583E-2"/>
+                  <c:y val="-1.7950848461863976E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -876,7 +849,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000001-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -884,11 +857,10 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6556415145643576E-3"/>
-                  <c:y val="-5.9270186090754157E-2"/>
+                  <c:x val="-5.0740638752214641E-3"/>
+                  <c:y val="-4.4895025055130983E-4"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -898,7 +870,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000002-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -906,11 +878,10 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5666470964155264E-4"/>
-                  <c:y val="-5.9270186090754157E-2"/>
+                  <c:x val="-7.147933202518616E-3"/>
+                  <c:y val="-4.985082470139875E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -920,7 +891,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000003-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -928,11 +899,10 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0546183194870553E-3"/>
-                  <c:y val="-6.1291337520034461E-2"/>
+                  <c:x val="-2.6514292341257101E-2"/>
+                  <c:y val="-7.3348936150491484E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -942,10 +912,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000004-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -962,10 +933,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -975,7 +943,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -988,7 +955,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="accent1">
                           <a:lumMod val="50000"/>
@@ -1028,32 +995,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>table1_m2!$K$25:$K$29</c:f>
+              <c:f>table1_m2!$L$25:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>77.489999999999995</c:v>
+                  <c:v>1.3244080995440709E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.58</c:v>
+                  <c:v>2.2873251024732588E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.08</c:v>
+                  <c:v>2.6508067174004116E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.08</c:v>
+                  <c:v>5.1546297489899031E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.340000000000003</c:v>
+                  <c:v>2.7965086155006185E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+              <c16:uniqueId val="{00000005-ED84-447A-9562-354D7E70C787}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1064,39 +1030,24 @@
             <c:v>Non Quantized Models</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="63500">
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5051201933091724E-2"/>
-                  <c:y val="6.0712717896854285E-2"/>
+                  <c:x val="5.4072777087911996E-3"/>
+                  <c:y val="-7.1125432816846919E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1106,7 +1057,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000006-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1114,11 +1065,10 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9242746558758352E-2"/>
-                  <c:y val="6.0712717896854285E-2"/>
+                  <c:x val="-2.1957937237801028E-3"/>
+                  <c:y val="-3.0702404231240732E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1128,7 +1078,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000007-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1136,11 +1086,10 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.9105374244563215E-2"/>
-                  <c:y val="5.2244122272295301E-2"/>
+                  <c:x val="6.4609538852144158E-3"/>
+                  <c:y val="3.9928085204103776E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1150,7 +1099,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000008-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1158,11 +1107,10 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3332214681336724E-2"/>
-                  <c:y val="3.8129796231363706E-2"/>
+                  <c:x val="-1.2557866461611999E-2"/>
+                  <c:y val="-1.1198929521813079E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1172,7 +1120,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{00000009-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1180,11 +1128,10 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1511150926493475E-2"/>
-                  <c:y val="7.0782789413144104E-3"/>
+                  <c:x val="-1.7497767317218762E-3"/>
+                  <c:y val="-5.6956683860246446E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1194,10 +1141,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+                  <c16:uniqueId val="{0000000A-ED84-447A-9562-354D7E70C787}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1214,10 +1162,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1227,7 +1172,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1240,7 +1184,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="accent2">
                           <a:lumMod val="50000"/>
@@ -1280,37 +1224,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>table1_m1!$J$22:$J$26</c:f>
+              <c:f>table1_m1!$K$22:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>77.34</c:v>
+                  <c:v>2.8018064750813224E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.67</c:v>
+                  <c:v>5.4041670987785839E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.99</c:v>
+                  <c:v>1.2229369017098639E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.88</c:v>
+                  <c:v>4.4609939214904255E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.270000000000003</c:v>
+                  <c:v>0.22929566892005204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+              <c16:uniqueId val="{0000000B-ED84-447A-9562-354D7E70C787}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1318,13 +1260,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1675494208"/>
-        <c:axId val="1675490464"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2052627520"/>
+        <c:axId val="2052614624"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1675494208"/>
+        <c:axId val="2052627520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,10 +1280,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1350,9 +1288,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>Pruning Fraction</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1371,10 +1320,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1407,12 +1353,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1422,7 +1365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675490464"/>
+        <c:crossAx val="2052614624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1430,10 +1373,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1675490464"/>
+        <c:axId val="2052614624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1441,9 +1383,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1460,10 +1401,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1471,9 +1409,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Accuracy (%)</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Figure of Merit</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1492,10 +1441,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1522,12 +1468,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1537,7 +1480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675494208"/>
+        <c:crossAx val="2052627520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1550,8 +1493,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11437547518474836"/>
+          <c:y val="0.12103275427079642"/>
+          <c:w val="0.28485245242956875"/>
+          <c:h val="0.11219491156825914"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1564,12 +1517,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1640,12 +1590,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1653,8 +1600,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Figure of Merit vs Pruning Fraction after 5 retraining epochs</a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Accuracy vs Pruning Fraction after 5 training Epochs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1672,12 +1623,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1691,8 +1639,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1701,39 +1650,46 @@
             <c:v>Quantized Models</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="63500" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5C9D-4BA5-8079-7FC2B760FC1F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8904620276254981E-2"/>
-                  <c:y val="-5.8682040848484288E-3"/>
+                  <c:x val="-3.1851727052304708E-3"/>
+                  <c:y val="-6.7477928895251732E-4"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1743,7 +1699,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{00000008-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1751,11 +1707,10 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2586731353272458E-2"/>
-                  <c:y val="-3.4120116974783683E-2"/>
+                  <c:x val="-2.5427800808169876E-4"/>
+                  <c:y val="-2.7073888491211326E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1765,7 +1720,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{00000009-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1773,11 +1728,10 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2786082393275467E-2"/>
-                  <c:y val="-2.4702812678138598E-2"/>
+                  <c:x val="-4.655643256961892E-3"/>
+                  <c:y val="-2.7045255706673031E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1787,7 +1741,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{0000000A-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1795,11 +1749,10 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3013218392193241E-2"/>
-                  <c:y val="-6.1577305779685045E-2"/>
+                  <c:x val="-3.1897917426161513E-3"/>
+                  <c:y val="-6.8432355046535681E-4"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1809,7 +1762,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{0000000B-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1817,11 +1770,10 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6514292341257101E-2"/>
-                  <c:y val="-7.3348936150491484E-2"/>
+                  <c:x val="-1.721861661446962E-3"/>
+                  <c:y val="-6.852779766167074E-4"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1831,11 +1783,10 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{0000000C-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1852,10 +1803,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1865,7 +1813,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1878,7 +1825,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="accent1">
                           <a:lumMod val="50000"/>
@@ -1918,32 +1865,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>table1_m2!$L$25:$L$29</c:f>
+              <c:f>table1_m2!$K$25:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1026952863502487E-3</c:v>
+                  <c:v>77.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2486069805991741E-3</c:v>
+                  <c:v>72.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4570130977628257E-3</c:v>
+                  <c:v>64.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8286178421227495E-3</c:v>
+                  <c:v>47.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7909672001979264E-2</c:v>
+                  <c:v>37.340000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-ED84-447A-9562-354D7E70C787}"/>
+              <c16:uniqueId val="{00000000-5C9D-4BA5-8079-7FC2B760FC1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1954,39 +1900,24 @@
             <c:v>Non Quantized Models</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="63500" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8582435557015946E-2"/>
-                  <c:y val="-7.178933416136403E-2"/>
+                  <c:x val="4.2796536137674106E-3"/>
+                  <c:y val="2.1269386781197805E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1996,7 +1927,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{00000001-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2004,11 +1935,10 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4719287352045139E-2"/>
-                  <c:y val="-7.1789334161364113E-2"/>
+                  <c:x val="4.4877412479923063E-3"/>
+                  <c:y val="1.0673665791776029E-4"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2018,7 +1948,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{00000002-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2026,11 +1956,10 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1399250530934413E-2"/>
-                  <c:y val="-6.4726355938880209E-2"/>
+                  <c:x val="4.8909832117621944E-3"/>
+                  <c:y val="-4.3214825419549832E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2040,7 +1969,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{00000003-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2048,11 +1977,10 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6811953814150032E-2"/>
-                  <c:y val="-4.3537421271428768E-2"/>
+                  <c:x val="2.1306464700795581E-3"/>
+                  <c:y val="-2.5403642726477371E-4"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2062,7 +1990,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{00000004-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2070,11 +1998,10 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3335403111432181E-2"/>
-                  <c:y val="-3.8034045038072416E-2"/>
+                  <c:x val="3.495456541611392E-4"/>
+                  <c:y val="1.0177364193112225E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2084,11 +2011,10 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-ED84-447A-9562-354D7E70C787}"/>
+                  <c16:uniqueId val="{00000005-5C9D-4BA5-8079-7FC2B760FC1F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2105,10 +2031,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2118,7 +2041,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2131,7 +2053,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="accent2">
                           <a:lumMod val="50000"/>
@@ -2171,37 +2093,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>table1_m1!$K$22:$K$26</c:f>
+              <c:f>table1_m1!$J$22:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8018064750813224E-3</c:v>
+                  <c:v>77.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4041670987785839E-3</c:v>
+                  <c:v>72.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2229369017098639E-2</c:v>
+                  <c:v>63.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4609939214904255E-2</c:v>
+                  <c:v>46.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22929566892005204</c:v>
+                  <c:v>37.270000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-ED84-447A-9562-354D7E70C787}"/>
+              <c16:uniqueId val="{00000006-5C9D-4BA5-8079-7FC2B760FC1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2209,13 +2129,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2052627520"/>
-        <c:axId val="2052614624"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="1675494208"/>
+        <c:axId val="1675490464"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2052627520"/>
+        <c:axId val="1675494208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,10 +2149,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2241,14 +2157,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                    <a:effectLst/>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                   </a:rPr>
                   <a:t>Pruning Fraction</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2267,10 +2182,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2303,12 +2215,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2318,7 +2227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052614624"/>
+        <c:crossAx val="1675490464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,9 +2235,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052614624"/>
+        <c:axId val="1675490464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2336,9 +2246,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2353,12 +2262,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2366,14 +2272,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                    <a:effectLst/>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                   </a:rPr>
-                  <a:t>Figure of Merit</a:t>
+                  <a:t>Accuracy (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2390,12 +2295,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2437,7 +2339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052627520"/>
+        <c:crossAx val="1675494208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2450,7 +2352,130 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.57642745865297551"/>
+          <c:y val="0.16871868289191125"/>
+          <c:w val="0.28489495096487649"/>
+          <c:h val="0.1121422094965402"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Max Memory vs Pruning Fraction after 5 retraining epochs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2464,12 +2489,1906 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quantized Models</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>table1_m2!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>table1_m2!$E$25:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.19140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.94140625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2578125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3359375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5234375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24D6-4A2B-AF1B-C9CBB840B2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Non Quantized Models</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>table1_m2!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>table1_m1!$D$22:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30.864062500000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.184375000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.723437500000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.364062500000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.192187500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-24D6-4A2B-AF1B-C9CBB840B2B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1286834400"/>
+        <c:axId val="1221373904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1286834400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pruning Fraction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221373904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221373904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Memory Usage [MB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1286834400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64212510990225846"/>
+          <c:y val="9.4136321412094159E-2"/>
+          <c:w val="0.28485245242956875"/>
+          <c:h val="0.11219491156825914"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Latency vs Pruning Fraction after 5 retraining epochs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quantized Models</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9700142187399877E-2"/>
+                  <c:y val="-2.5249274016729724E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4DE3-4359-BBD4-CEFD0F4FFD8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4358629759136899E-3"/>
+                  <c:y val="-2.929157687529034E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4DE3-4359-BBD4-CEFD0F4FFD8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8233816585759084E-2"/>
+                  <c:y val="-3.5355031163131267E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4DE3-4359-BBD4-CEFD0F4FFD8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>table1_m2!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>table1_m2!$F$25:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>121.025243997573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.521197533607406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.559503841400101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.987746930122299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.2832345485687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE3-4359-BBD4-CEFD0F4FFD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Non Quantized Models</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>table1_m2!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>table1_m1!$E$22:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>79.298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.320999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9189999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DE3-4359-BBD4-CEFD0F4FFD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1224828224"/>
+        <c:axId val="1224829056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1224828224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pruning Fraction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224829056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1224829056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latency [ms/image]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224828224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64212510990225846"/>
+          <c:y val="9.8178624270654768E-2"/>
+          <c:w val="0.28485245242956875"/>
+          <c:h val="0.11219491156825914"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Energy Usage vs Pruning Fraction after 5 retraining epochs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quantized Models</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>table1_m2!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>table1_m2!$H$25:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>483.44588276750397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362.55660067775102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315.75143309986697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203.02276343486199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.2561618487115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFCD-47AA-9FA4-48CAB6CD9CF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Non Quantized Models</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>table1_m2!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>table1_m1!$G$22:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>348.09982033920301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>247.54755133741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.77860142300199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.278430058693701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.043551481723803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BFCD-47AA-9FA4-48CAB6CD9CF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1596972672"/>
+        <c:axId val="1596973920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1596972672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pruning Fraction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596973920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596973920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Energy Usage [mJ/image]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596972672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59520269064974962"/>
+          <c:y val="9.8178624270654768E-2"/>
+          <c:w val="0.28485245242956875"/>
+          <c:h val="0.11219491156825914"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2599,6 +4518,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3605,11 +5644,1520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0"/>
+    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3617,7 +7165,40 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D75FC22-9BBA-4AD2-83C8-B9499AB2E4F9}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{62A6A35F-F7C4-47F5-A97B-4029333A556E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2E8E79EF-0BBC-4353-A08D-7532AD015154}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
@@ -3632,6 +7213,39 @@
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8661105" cy="6283547"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D7578C-2A6F-4CC6-A66B-55F94BFD3587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8659813" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3660,7 +7274,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3670,7 +7284,73 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D7578C-2A6F-4CC6-A66B-55F94BFD3587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695ED228-775D-4E56-938B-E23B86DD09E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8661105" cy="6283547"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A980A6B-1A62-4E2E-9C7F-5559168DB767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8661105" cy="6283547"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9078B1CC-9149-4B86-8C78-02321DCA0C9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3989,11 +7669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4050,16 +7730,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.28125</v>
+        <v>10.4765625</v>
       </c>
       <c r="F2">
-        <v>142.09115433692901</v>
+        <v>131.57913820743499</v>
       </c>
       <c r="G2">
-        <v>4.1529999999999996</v>
+        <v>4.1180000000000003</v>
       </c>
       <c r="H2">
-        <v>553.36905818785499</v>
+        <v>517.56074993624998</v>
       </c>
       <c r="I2">
         <v>10000</v>
@@ -4072,7 +7752,7 @@
       </c>
       <c r="L2">
         <f>K2/(F2*H2)</f>
-        <v>9.8157357910669805E-4</v>
+        <v>1.1333300473983729E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -4089,16 +7769,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.2734375</v>
+        <v>10.3125</v>
       </c>
       <c r="F3">
-        <v>134.62831223011</v>
+        <v>119.767965888977</v>
       </c>
       <c r="G3">
-        <v>4.1260000000000003</v>
+        <v>4.1339999999999897</v>
       </c>
       <c r="H3">
-        <v>525.68637155506599</v>
+        <v>477.29481789288201</v>
       </c>
       <c r="I3">
         <v>10000</v>
@@ -4111,7 +7791,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L17" si="0">K3/(F3*H3)</f>
-        <v>1.6800365699605943E-4</v>
+        <v>2.0799575035427786E-4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -4128,16 +7808,16 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>16.8359375</v>
+        <v>9.60546875</v>
       </c>
       <c r="F4">
-        <v>136.95797913074401</v>
+        <v>122.595062899589</v>
       </c>
       <c r="G4">
-        <v>4.1639999999999997</v>
+        <v>4.1449999999999996</v>
       </c>
       <c r="H4">
-        <v>534.10112404609004</v>
+        <v>487.51665656813799</v>
       </c>
       <c r="I4">
         <v>10000</v>
@@ -4150,7 +7830,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>1.049085691459404E-3</v>
+        <v>1.2839832421830055E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -4167,16 +7847,16 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>14.64453125</v>
+        <v>13.19140625</v>
       </c>
       <c r="F5">
-        <v>134.01644372940001</v>
+        <v>121.025243997573</v>
       </c>
       <c r="G5">
-        <v>4.1950000000000003</v>
+        <v>4.1989999999999998</v>
       </c>
       <c r="H5">
-        <v>524.36301690252606</v>
+        <v>483.44588276750397</v>
       </c>
       <c r="I5">
         <v>10000</v>
@@ -4189,7 +7869,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>1.1026952863502487E-3</v>
+        <v>1.3244080995440709E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -4206,16 +7886,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.48046875</v>
+        <v>8.015625</v>
       </c>
       <c r="F6">
-        <v>109.387006282806</v>
+        <v>100.45179905891401</v>
       </c>
       <c r="G6">
-        <v>4.1950000000000003</v>
+        <v>4.2060000000000004</v>
       </c>
       <c r="H6">
-        <v>434.02177874226498</v>
+        <v>405.11407924807202</v>
       </c>
       <c r="I6">
         <v>10000</v>
@@ -4228,7 +7908,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.1610763052568017E-4</v>
+        <v>2.5212290629690978E-4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -4245,16 +7925,16 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>13.3828125</v>
+        <v>8.46875</v>
       </c>
       <c r="F7">
-        <v>109.72022998332901</v>
+        <v>103.748650217056</v>
       </c>
       <c r="G7">
-        <v>4.1870000000000003</v>
+        <v>4.1760000000000002</v>
       </c>
       <c r="H7">
-        <v>434.93038434740498</v>
+        <v>414.58668315615898</v>
       </c>
       <c r="I7">
         <v>10000</v>
@@ -4267,7 +7947,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>1.5115046037359908E-3</v>
+        <v>1.6769423354008677E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -4284,16 +7964,16 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>6.375</v>
+        <v>6.94140625</v>
       </c>
       <c r="F8">
-        <v>88.392627406120297</v>
+        <v>87.521197533607406</v>
       </c>
       <c r="G8">
-        <v>4.34</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="H8">
-        <v>365.16350428898801</v>
+        <v>362.55660067775102</v>
       </c>
       <c r="I8">
         <v>10000</v>
@@ -4306,7 +7986,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>2.2486069805991741E-3</v>
+        <v>2.2873251024732588E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -4323,16 +8003,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.66796875</v>
+        <v>6.953125</v>
       </c>
       <c r="F9">
-        <v>78.963199210166906</v>
+        <v>73.660720872878997</v>
       </c>
       <c r="G9">
-        <v>4.4050000000000002</v>
+        <v>4.4160000000000004</v>
       </c>
       <c r="H9">
-        <v>321.92618445200998</v>
+        <v>306.658173808502</v>
       </c>
       <c r="I9">
         <v>10000</v>
@@ -4345,7 +8025,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>3.937794424058456E-4</v>
+        <v>4.4314266759389211E-4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -4362,16 +8042,16 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>7.21484375</v>
+        <v>5.375</v>
       </c>
       <c r="F10">
-        <v>74.6540601968765</v>
+        <v>73.516910576820294</v>
       </c>
       <c r="G10">
-        <v>4.4080000000000004</v>
+        <v>4.4009999999999998</v>
       </c>
       <c r="H10">
-        <v>308.69434559714898</v>
+        <v>305.97013608596399</v>
       </c>
       <c r="I10">
         <v>10000</v>
@@ -4384,7 +8064,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>2.6721299665739473E-3</v>
+        <v>2.7376214601107546E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -4401,16 +8081,16 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>16.328125</v>
+        <v>8.2578125</v>
       </c>
       <c r="F11">
-        <v>80.027158021926795</v>
+        <v>76.559503841400101</v>
       </c>
       <c r="G11">
-        <v>4.4119999999999999</v>
+        <v>4.3780000000000001</v>
       </c>
       <c r="H11">
-        <v>325.89495485930797</v>
+        <v>315.75143309986697</v>
       </c>
       <c r="I11">
         <v>10000</v>
@@ -4423,7 +8103,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>2.4570130977628257E-3</v>
+        <v>2.6508067174004116E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -4440,16 +8120,16 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.44921875</v>
+        <v>10.2734375</v>
       </c>
       <c r="F12">
-        <v>48.559871578216502</v>
+        <v>45.414174032211299</v>
       </c>
       <c r="G12">
-        <v>4.9119999999999999</v>
+        <v>4.8819999999999997</v>
       </c>
       <c r="H12">
-        <v>214.12546727957599</v>
+        <v>204.31095343902001</v>
       </c>
       <c r="I12">
         <v>10000</v>
@@ -4462,7 +8142,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>9.6173217726582753E-4</v>
+        <v>1.0777472655214635E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -4479,16 +8159,16 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>15.74609375</v>
+        <v>8.7890625</v>
       </c>
       <c r="F13">
-        <v>49.681903553009001</v>
+        <v>48.139221358299203</v>
       </c>
       <c r="G13">
-        <v>4.8739999999999997</v>
+        <v>4.8129999999999997</v>
       </c>
       <c r="H13">
-        <v>217.63624315169301</v>
+        <v>213.62332204251001</v>
       </c>
       <c r="I13">
         <v>10000</v>
@@ -4501,7 +8181,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>3.7706069489711041E-3</v>
+        <v>3.9645416578657222E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -4518,16 +8198,16 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>10.23046875</v>
+        <v>5.3359375</v>
       </c>
       <c r="F14">
-        <v>46.765640258788999</v>
+        <v>44.987746930122299</v>
       </c>
       <c r="G14">
-        <v>4.9050000000000002</v>
+        <v>4.8819999999999997</v>
       </c>
       <c r="H14">
-        <v>208.49072272760799</v>
+        <v>203.02276343486199</v>
       </c>
       <c r="I14">
         <v>10000</v>
@@ -4540,7 +8220,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>4.8286178421227495E-3</v>
+        <v>5.1546297489899031E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -4557,16 +8237,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.53515625</v>
+        <v>5.5390625</v>
       </c>
       <c r="F15">
-        <v>16.084288859367302</v>
+        <v>15.602175807952801</v>
       </c>
       <c r="G15">
-        <v>4.13</v>
+        <v>4.1070000000000002</v>
       </c>
       <c r="H15">
-        <v>72.334574303722505</v>
+        <v>71.267178203726104</v>
       </c>
       <c r="I15">
         <v>10000</v>
@@ -4579,7 +8259,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>8.5951251771703395E-3</v>
+        <v>8.993428148573122E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -4596,16 +8276,16 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>8.9453125</v>
+        <v>7.625</v>
       </c>
       <c r="F16">
-        <v>17.674308085441499</v>
+        <v>15.0020265340805</v>
       </c>
       <c r="G16">
-        <v>4.1339999999999897</v>
+        <v>4.1909999999999998</v>
       </c>
       <c r="H16">
-        <v>78.852844998645296</v>
+        <v>69.237243012762093</v>
       </c>
       <c r="I16">
         <v>10000</v>
@@ -4618,7 +8298,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>2.0176950479197972E-2</v>
+        <v>2.7072329104845479E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -4635,16 +8315,16 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>9.16015625</v>
+        <v>7.5234375</v>
       </c>
       <c r="F17">
-        <v>17.3401263952255</v>
+        <v>17.2832345485687</v>
       </c>
       <c r="G17">
         <v>4.1870000000000003</v>
       </c>
       <c r="H17">
-        <v>77.155576776528505</v>
+        <v>77.2561618487115</v>
       </c>
       <c r="I17">
         <v>10000</v>
@@ -4657,10 +8337,13 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>2.7909672001979264E-2</v>
+        <v>2.7965086155006185E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
@@ -4671,16 +8354,16 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>14.64453125</v>
+        <v>13.19140625</v>
       </c>
       <c r="F25">
-        <v>134.01644372940001</v>
+        <v>121.025243997573</v>
       </c>
       <c r="G25">
-        <v>4.1950000000000003</v>
+        <v>4.1989999999999998</v>
       </c>
       <c r="H25">
-        <v>524.36301690252606</v>
+        <v>483.44588276750397</v>
       </c>
       <c r="I25">
         <v>10000</v>
@@ -4693,7 +8376,7 @@
       </c>
       <c r="L25">
         <f t="shared" ref="L25:L29" si="1">K25/(F25*H25)</f>
-        <v>1.1026952863502487E-3</v>
+        <v>1.3244080995440709E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -4707,16 +8390,16 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>6.375</v>
+        <v>6.94140625</v>
       </c>
       <c r="F26">
-        <v>88.392627406120297</v>
+        <v>87.521197533607406</v>
       </c>
       <c r="G26">
-        <v>4.34</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="H26">
-        <v>365.16350428898801</v>
+        <v>362.55660067775102</v>
       </c>
       <c r="I26">
         <v>10000</v>
@@ -4729,7 +8412,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>2.2486069805991741E-3</v>
+        <v>2.2873251024732588E-3</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -4743,16 +8426,16 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>16.328125</v>
+        <v>8.2578125</v>
       </c>
       <c r="F27">
-        <v>80.027158021926795</v>
+        <v>76.559503841400101</v>
       </c>
       <c r="G27">
-        <v>4.4119999999999999</v>
+        <v>4.3780000000000001</v>
       </c>
       <c r="H27">
-        <v>325.89495485930797</v>
+        <v>315.75143309986697</v>
       </c>
       <c r="I27">
         <v>10000</v>
@@ -4765,7 +8448,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>2.4570130977628257E-3</v>
+        <v>2.6508067174004116E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -4779,16 +8462,16 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>10.23046875</v>
+        <v>5.3359375</v>
       </c>
       <c r="F28">
-        <v>46.765640258788999</v>
+        <v>44.987746930122299</v>
       </c>
       <c r="G28">
-        <v>4.9050000000000002</v>
+        <v>4.8819999999999997</v>
       </c>
       <c r="H28">
-        <v>208.49072272760799</v>
+        <v>203.02276343486199</v>
       </c>
       <c r="I28">
         <v>10000</v>
@@ -4801,7 +8484,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>4.8286178421227495E-3</v>
+        <v>5.1546297489899031E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -4815,16 +8498,16 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>9.16015625</v>
+        <v>7.5234375</v>
       </c>
       <c r="F29">
-        <v>17.3401263952255</v>
+        <v>17.2832345485687</v>
       </c>
       <c r="G29">
         <v>4.1870000000000003</v>
       </c>
       <c r="H29">
-        <v>77.155576776528505</v>
+        <v>77.2561618487115</v>
       </c>
       <c r="I29">
         <v>10000</v>
@@ -4837,7 +8520,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>2.7909672001979264E-2</v>
+        <v>2.7965086155006185E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4846,11 +8529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4910,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>O2-122.8</f>
+        <f t="shared" ref="D2:D16" si="0">O2-122.8</f>
         <v>31.797656250000003</v>
       </c>
       <c r="E2">
@@ -4950,7 +8633,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f>O3-122.8</f>
+        <f t="shared" si="0"/>
         <v>27.446093750000003</v>
       </c>
       <c r="E3">
@@ -4972,7 +8655,7 @@
         <v>76.73</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K16" si="0">J3/(E3*G3)</f>
+        <f t="shared" ref="K3:K16" si="1">J3/(E3*G3)</f>
         <v>3.8690485459503396E-3</v>
       </c>
       <c r="O3">
@@ -4990,7 +8673,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <f>O4-122.8</f>
+        <f t="shared" si="0"/>
         <v>30.864062500000003</v>
       </c>
       <c r="E4">
@@ -5012,7 +8695,7 @@
         <v>77.34</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8018064750813224E-3</v>
       </c>
       <c r="O4">
@@ -5030,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>O5-122.8</f>
+        <f t="shared" si="0"/>
         <v>27.446093750000003</v>
       </c>
       <c r="E5">
@@ -5052,7 +8735,7 @@
         <v>10.24</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1477986390609772E-4</v>
       </c>
       <c r="O5">
@@ -5070,7 +8753,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <f>O6-122.8</f>
+        <f t="shared" si="0"/>
         <v>27.895312500000003</v>
       </c>
       <c r="E6">
@@ -5092,7 +8775,7 @@
         <v>72.069999999999993</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9973547735366382E-3</v>
       </c>
       <c r="O6">
@@ -5110,7 +8793,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f>O7-122.8</f>
+        <f t="shared" si="0"/>
         <v>26.184375000000003</v>
       </c>
       <c r="E7">
@@ -5132,7 +8815,7 @@
         <v>72.67</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4041670987785839E-3</v>
       </c>
       <c r="O7">
@@ -5150,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>O8-122.8</f>
+        <f t="shared" si="0"/>
         <v>20.164843750000003</v>
       </c>
       <c r="E8">
@@ -5172,7 +8855,7 @@
         <v>10.02</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5115070463961504E-3</v>
       </c>
       <c r="O8">
@@ -5190,7 +8873,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <f>O9-122.8</f>
+        <f t="shared" si="0"/>
         <v>24.356250000000003</v>
       </c>
       <c r="E9">
@@ -5212,7 +8895,7 @@
         <v>61.57</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5519258146755531E-2</v>
       </c>
       <c r="O9">
@@ -5230,7 +8913,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <f>O10-122.8</f>
+        <f t="shared" si="0"/>
         <v>25.723437500000003</v>
       </c>
       <c r="E10">
@@ -5252,7 +8935,7 @@
         <v>63.99</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2229369017098639E-2</v>
       </c>
       <c r="O10">
@@ -5270,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>O11-122.8</f>
+        <f t="shared" si="0"/>
         <v>19.395312500000003</v>
       </c>
       <c r="E11">
@@ -5292,7 +8975,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1237224770854957E-2</v>
       </c>
       <c r="O11">
@@ -5310,7 +8993,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <f>O12-122.8</f>
+        <f t="shared" si="0"/>
         <v>18.672656250000003</v>
       </c>
       <c r="E12">
@@ -5332,7 +9015,7 @@
         <v>40.81</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2077059513508798E-2</v>
       </c>
       <c r="O12">
@@ -5350,7 +9033,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <f>O13-122.8</f>
+        <f t="shared" si="0"/>
         <v>20.364062500000003</v>
       </c>
       <c r="E13">
@@ -5372,7 +9055,7 @@
         <v>46.88</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4609939214904255E-2</v>
       </c>
       <c r="O13">
@@ -5390,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f>O14-122.8</f>
+        <f t="shared" si="0"/>
         <v>19.465625000000003</v>
       </c>
       <c r="E14">
@@ -5412,7 +9095,7 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9214217049749723E-2</v>
       </c>
       <c r="O14">
@@ -5430,7 +9113,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <f>O15-122.8</f>
+        <f t="shared" si="0"/>
         <v>16.793750000000003</v>
       </c>
       <c r="E15">
@@ -5452,7 +9135,7 @@
         <v>28.29</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17209814965360948</v>
       </c>
       <c r="O15">
@@ -5470,7 +9153,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <f>O16-122.8</f>
+        <f t="shared" si="0"/>
         <v>19.192187500000003</v>
       </c>
       <c r="E16">
@@ -5492,7 +9175,7 @@
         <v>37.270000000000003</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22929566892005204</v>
       </c>
       <c r="O16">
@@ -5510,8 +9193,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <f>O22-122.8</f>
-        <v>-122.8</v>
+        <v>30.864062500000003</v>
       </c>
       <c r="E22">
         <v>79.298000000000002</v>
@@ -5532,7 +9214,7 @@
         <v>77.34</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K26" si="1">J22/(E22*G22)</f>
+        <f t="shared" ref="K22:K26" si="2">J22/(E22*G22)</f>
         <v>2.8018064750813224E-3</v>
       </c>
     </row>
@@ -5547,8 +9229,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <f>O23-122.8</f>
-        <v>-122.8</v>
+        <v>26.184375000000003</v>
       </c>
       <c r="E23">
         <v>54.320999999999998</v>
@@ -5569,7 +9250,7 @@
         <v>72.67</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4041670987785839E-3</v>
       </c>
     </row>
@@ -5584,8 +9265,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <f>O24-122.8</f>
-        <v>-122.8</v>
+        <v>25.723437500000003</v>
       </c>
       <c r="E24">
         <v>33.375</v>
@@ -5606,7 +9286,7 @@
         <v>63.99</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2229369017098639E-2</v>
       </c>
     </row>
@@ -5621,8 +9301,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <f>O25-122.8</f>
-        <v>-122.8</v>
+        <v>20.364062500000003</v>
       </c>
       <c r="E25">
         <v>13.96</v>
@@ -5643,7 +9322,7 @@
         <v>46.88</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4609939214904255E-2</v>
       </c>
     </row>
@@ -5658,8 +9337,7 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <f>O26-122.8</f>
-        <v>-122.8</v>
+        <v>19.192187500000003</v>
       </c>
       <c r="E26">
         <v>4.9189999999999996</v>
@@ -5680,7 +9358,7 @@
         <v>37.270000000000003</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22929566892005204</v>
       </c>
     </row>
